--- a/results/05-2024 - CORRECTED CBO + SUPPLY SIDE/contributions-comparison-05-2024.xlsx
+++ b/results/05-2024 - CORRECTED CBO + SUPPLY SIDE/contributions-comparison-05-2024.xlsx
@@ -1038,25 +1038,25 @@
         <v>-0.0708</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0969</v>
+        <v>0.1067</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.045</v>
+        <v>-0.0452</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2751</v>
+        <v>0.295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2384</v>
+        <v>0.2573</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5026</v>
+        <v>0.3088</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5367</v>
+        <v>0.2796</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7111</v>
+        <v>0.1561</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
@@ -1091,31 +1091,31 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="n">
-        <v>0.3556</v>
+        <v>-0.0145</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1834</v>
+        <v>-0.0203</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1366</v>
+        <v>-0.0138</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0037</v>
+        <v>-0.0083</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0363</v>
+        <v>0.0126</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0316</v>
+        <v>0.0046</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0962</v>
+        <v>-0.005</v>
       </c>
       <c r="W11" t="n">
-        <v>0.122</v>
+        <v>-0.0105</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.7756</v>
+        <v>-1.7941</v>
       </c>
     </row>
     <row r="12">
@@ -2098,25 +2098,25 @@
         <v>-4.5905</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.2972</v>
+        <v>-2.2874</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.5605</v>
+        <v>-0.5607</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0439</v>
+        <v>0.0638</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.2074</v>
+        <v>-0.1884</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7225</v>
+        <v>0.5287</v>
       </c>
       <c r="N30" t="n">
-        <v>0.4883</v>
+        <v>0.2312</v>
       </c>
       <c r="O30" t="n">
-        <v>0.3005</v>
+        <v>-0.2545</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
@@ -2151,31 +2151,31 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>-0.2837</v>
+        <v>-0.6538</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.0332</v>
+        <v>-0.2369</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1419</v>
+        <v>-0.0086</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.5106</v>
+        <v>-0.5226</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.6713</v>
+        <v>-0.6951</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.4579</v>
+        <v>-0.4849</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.3235</v>
+        <v>-0.4247</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0767</v>
+        <v>-0.0558</v>
       </c>
       <c r="X31" t="n">
-        <v>-75.1223</v>
+        <v>-73.1408</v>
       </c>
     </row>
     <row r="32">
@@ -4006,25 +4006,25 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.0098</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.0199</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.019</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1938</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2571</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0.555</v>
+        <v>0</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
@@ -4059,31 +4059,31 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>0.4759</v>
+        <v>0.1058</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.4215</v>
+        <v>0.2178</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3602</v>
+        <v>0.2097</v>
       </c>
       <c r="S67" t="n">
-        <v>0.2876</v>
+        <v>0.2755</v>
       </c>
       <c r="T67" t="n">
-        <v>0.2558</v>
+        <v>0.2321</v>
       </c>
       <c r="U67" t="n">
-        <v>0.2023</v>
+        <v>0.1752</v>
       </c>
       <c r="V67" t="n">
-        <v>0.1317</v>
+        <v>0.0305</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2361</v>
+        <v>0.1036</v>
       </c>
       <c r="X67" t="n">
-        <v>-3.3484</v>
+        <v>-1.3669</v>
       </c>
     </row>
     <row r="68">
@@ -5066,25 +5066,25 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.0098</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.0199</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.019</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.1938</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2571</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0.555</v>
+        <v>0</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
@@ -5119,31 +5119,31 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>0.3901</v>
+        <v>0.02</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.3298</v>
+        <v>0.1261</v>
       </c>
       <c r="R87" t="n">
-        <v>0.2609</v>
+        <v>0.1105</v>
       </c>
       <c r="S87" t="n">
-        <v>0.1757</v>
+        <v>0.1636</v>
       </c>
       <c r="T87" t="n">
-        <v>0.1482</v>
+        <v>0.1244</v>
       </c>
       <c r="U87" t="n">
-        <v>0.1063</v>
+        <v>0.0793</v>
       </c>
       <c r="V87" t="n">
-        <v>0.0469</v>
+        <v>-0.0543</v>
       </c>
       <c r="W87" t="n">
-        <v>0.1676</v>
+        <v>0.0352</v>
       </c>
       <c r="X87" t="n">
-        <v>-4.4752</v>
+        <v>-2.4937</v>
       </c>
     </row>
     <row r="88">
